--- a/Biomass/my_graphs/Value Added Change by Activities.xlsx
+++ b/Biomass/my_graphs/Value Added Change by Activities.xlsx
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>214.5425920097405</v>
+        <v>-2.254359414902865</v>
       </c>
       <c r="I10">
         <v>-0.1854169220887343</v>
